--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Cxcl2-Cxcr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Cxcl2-Cxcr2.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1543.574127666667</v>
+        <v>0.3821933333333334</v>
       </c>
       <c r="H2">
-        <v>4630.722382999999</v>
+        <v>1.14658</v>
       </c>
       <c r="I2">
-        <v>0.9987717588874756</v>
+        <v>0.1675988106211496</v>
       </c>
       <c r="J2">
-        <v>0.9987717588874756</v>
+        <v>0.1675988106211496</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>157.26769</v>
+        <v>0.01650666666666667</v>
       </c>
       <c r="N2">
-        <v>471.80307</v>
+        <v>0.04952</v>
       </c>
       <c r="O2">
-        <v>0.9999730784752147</v>
+        <v>0.795859985214233</v>
       </c>
       <c r="P2">
-        <v>0.9999730784752147</v>
+        <v>0.795859985214233</v>
       </c>
       <c r="Q2">
-        <v>242754.3374019017</v>
+        <v>0.006308737955555557</v>
       </c>
       <c r="R2">
-        <v>2184789.036617116</v>
+        <v>0.05677864160000001</v>
       </c>
       <c r="S2">
-        <v>0.9987448704288138</v>
+        <v>0.1333851869428712</v>
       </c>
       <c r="T2">
-        <v>0.9987448704288138</v>
+        <v>0.1333851869428712</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1543.574127666667</v>
+        <v>0.3821933333333334</v>
       </c>
       <c r="H3">
-        <v>4630.722382999999</v>
+        <v>1.14658</v>
       </c>
       <c r="I3">
-        <v>0.9987717588874756</v>
+        <v>0.1675988106211496</v>
       </c>
       <c r="J3">
-        <v>0.9987717588874756</v>
+        <v>0.1675988106211496</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>0.012702</v>
       </c>
       <c r="O3">
-        <v>2.692152478531388E-05</v>
+        <v>0.2041400147857671</v>
       </c>
       <c r="P3">
-        <v>2.692152478531388E-05</v>
+        <v>0.2041400147857671</v>
       </c>
       <c r="Q3">
-        <v>6.535492856540666</v>
+        <v>0.001618206573333334</v>
       </c>
       <c r="R3">
-        <v>58.81943570886599</v>
+        <v>0.01456385916</v>
       </c>
       <c r="S3">
-        <v>2.688845866176071E-05</v>
+        <v>0.03421362367827847</v>
       </c>
       <c r="T3">
-        <v>2.688845866176071E-05</v>
+        <v>0.03421362367827847</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,40 +664,40 @@
         <v>4.322266</v>
       </c>
       <c r="I4">
-        <v>0.0009322427168270031</v>
+        <v>0.6317977295855797</v>
       </c>
       <c r="J4">
-        <v>0.0009322427168270031</v>
+        <v>0.6317977295855797</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>157.26769</v>
+        <v>0.01650666666666667</v>
       </c>
       <c r="N4">
-        <v>471.80307</v>
+        <v>0.04952</v>
       </c>
       <c r="O4">
-        <v>0.9999730784752147</v>
+        <v>0.795859985214233</v>
       </c>
       <c r="P4">
-        <v>0.9999730784752147</v>
+        <v>0.795859985214233</v>
       </c>
       <c r="Q4">
-        <v>226.5842631285133</v>
+        <v>0.02378206803555555</v>
       </c>
       <c r="R4">
-        <v>2039.25836815662</v>
+        <v>0.21403861232</v>
       </c>
       <c r="S4">
-        <v>0.0009322176194315961</v>
+        <v>0.5028225317263654</v>
       </c>
       <c r="T4">
-        <v>0.0009322176194315961</v>
+        <v>0.5028225317263654</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>4.322266</v>
       </c>
       <c r="I5">
-        <v>0.0009322427168270031</v>
+        <v>0.6317977295855797</v>
       </c>
       <c r="J5">
-        <v>0.0009322427168270031</v>
+        <v>0.6317977295855797</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -744,10 +744,10 @@
         <v>0.012702</v>
       </c>
       <c r="O5">
-        <v>2.692152478531388E-05</v>
+        <v>0.2041400147857671</v>
       </c>
       <c r="P5">
-        <v>2.692152478531388E-05</v>
+        <v>0.2041400147857671</v>
       </c>
       <c r="Q5">
         <v>0.006100158081333334</v>
@@ -756,10 +756,10 @@
         <v>0.054901422732</v>
       </c>
       <c r="S5">
-        <v>2.509739540698651E-08</v>
+        <v>0.1289751978592143</v>
       </c>
       <c r="T5">
-        <v>2.509739540698651E-08</v>
+        <v>0.1289751978592143</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,40 +788,40 @@
         <v>1.372372</v>
       </c>
       <c r="I6">
-        <v>0.0002959983956973745</v>
+        <v>0.2006034597932707</v>
       </c>
       <c r="J6">
-        <v>0.0002959983956973745</v>
+        <v>0.2006034597932707</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>157.26769</v>
+        <v>0.01650666666666667</v>
       </c>
       <c r="N6">
-        <v>471.80307</v>
+        <v>0.04952</v>
       </c>
       <c r="O6">
-        <v>0.9999730784752147</v>
+        <v>0.795859985214233</v>
       </c>
       <c r="P6">
-        <v>0.9999730784752147</v>
+        <v>0.795859985214233</v>
       </c>
       <c r="Q6">
-        <v>71.94325808689332</v>
+        <v>0.007551095715555555</v>
       </c>
       <c r="R6">
-        <v>647.4893227820399</v>
+        <v>0.06795986144000001</v>
       </c>
       <c r="S6">
-        <v>0.0002959904269692282</v>
+        <v>0.1596522665449964</v>
       </c>
       <c r="T6">
-        <v>0.0002959904269692282</v>
+        <v>0.1596522665449964</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1.372372</v>
       </c>
       <c r="I7">
-        <v>0.0002959983956973745</v>
+        <v>0.2006034597932707</v>
       </c>
       <c r="J7">
-        <v>0.0002959983956973745</v>
+        <v>0.2006034597932707</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -868,10 +868,10 @@
         <v>0.012702</v>
       </c>
       <c r="O7">
-        <v>2.692152478531388E-05</v>
+        <v>0.2041400147857671</v>
       </c>
       <c r="P7">
-        <v>2.692152478531388E-05</v>
+        <v>0.2041400147857671</v>
       </c>
       <c r="Q7">
         <v>0.001936874349333333</v>
@@ -880,10 +880,10 @@
         <v>0.017431869144</v>
       </c>
       <c r="S7">
-        <v>7.968728146180011E-09</v>
+        <v>0.04095119324827432</v>
       </c>
       <c r="T7">
-        <v>7.968728146180011E-09</v>
+        <v>0.04095119324827432</v>
       </c>
     </row>
   </sheetData>
